--- a/new_wbook_2.xlsx
+++ b/new_wbook_2.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ykhFoX3e</t>
+          <t>pDjs72cW</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rctobprl</t>
+          <t>R4VEq7PP</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JT0Ci3GH</t>
+          <t>ySK4JQ2w</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CECwXJDx</t>
+          <t>8o1Mw3y6</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NPjzw2Mb</t>
+          <t>ET3Vd0y8</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>h6TxxiHj</t>
+          <t>eAdHD3F4</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RwJpMao8</t>
+          <t>xDO6qXm0</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>c0ynt6bm</t>
+          <t>x11QWQQp</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>vV67sojp</t>
+          <t>tWli19Yc</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2x4g76Wq</t>
+          <t>jqfJBgmm</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>fmJ2nfUR</t>
+          <t>jRGHmWAK</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>k4eXmSzd</t>
+          <t>x5NJuMIL</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JJjZC6sX</t>
+          <t>6oArHA8T</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nrHYtwm2</t>
+          <t>FKMP2JvK</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>lz0SpqNz</t>
+          <t>CjD6ZIkG</t>
         </is>
       </c>
     </row>

--- a/new_wbook_2.xlsx
+++ b/new_wbook_2.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pDjs72cW</t>
+          <t>SPW0eDKS</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R4VEq7PP</t>
+          <t>3wBUwg1i</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ySK4JQ2w</t>
+          <t>r0R2zjJn</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8o1Mw3y6</t>
+          <t>0t6u7o9Y</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ET3Vd0y8</t>
+          <t>YUqw4fGp</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>eAdHD3F4</t>
+          <t>dOcw50h8</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>xDO6qXm0</t>
+          <t>sZv1JBG7</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>x11QWQQp</t>
+          <t>nRJ3xD9F</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tWli19Yc</t>
+          <t>ICqF8mVt</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jqfJBgmm</t>
+          <t>JhPalnh7</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jRGHmWAK</t>
+          <t>IceqXjMD</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>x5NJuMIL</t>
+          <t>G1nMq6gd</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6oArHA8T</t>
+          <t>5AfmoLTB</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FKMP2JvK</t>
+          <t>sfFK4svo</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CjD6ZIkG</t>
+          <t>YhHwR9OE</t>
         </is>
       </c>
     </row>
